--- a/生成产物汇总/缺陷报告汇总.xlsx
+++ b/生成产物汇总/缺陷报告汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="物业方" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="446">
   <si>
     <t>所属模块</t>
   </si>
@@ -563,37 +563,7 @@
     <t>点击信息栏后删除选项无法完成删除</t>
   </si>
   <si>
-    <t>1.以平台方身份登录进入后台系统主界面
-2.找寻用户管理点击进入其下的出租方页面
-3.点击信息栏中需要删除的信息条后的删除选项</t>
-  </si>
-  <si>
-    <t>1.登录成功，界面各项内容加载完成
-2.成功进入出租方页面并显示相关信息
-3.出现删除确认提示弹窗，进行确认后，弹窗退出，页面更新去掉所删除信息</t>
-  </si>
-  <si>
-    <t>1.登录成功，界面各项内容加载完成
-2.成功进入出租方页面并显示相关信息
-3.该信息条变蓝显示被勾选，但无法被删除</t>
-  </si>
-  <si>
     <t>不在修改信息弹窗输入姓名，电话等关键信息也可完成修改操作</t>
-  </si>
-  <si>
-    <t>1.以平台方身份登录进入后台系统主界面
-2.找寻用户管理点击进入其下的出租方页面
-3.勾选要修改的信息条，点击上方修改选项，只选择性别，删除其他信息，然后进行修改操作</t>
-  </si>
-  <si>
-    <t>1.登录成功，界面各项内容加载完成
-2.成功进入出租方页面并显示相关信息
-3.弹出修改弹窗，进行如上操作后提示输入完整修改信息，并且首个信息框中出现输入光标</t>
-  </si>
-  <si>
-    <t>1.登录成功，界面各项内容加载完成
-2.成功进入出租方页面并显示相关信息
-3.弹出修改弹窗，进行如上操作后弹窗退出，页面无信息更新</t>
   </si>
   <si>
     <t>查询时间框选择的时间范围在查询时无效</t>
@@ -1608,6 +1578,404 @@
   <si>
     <t>评论内容为空可以发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理-出租方</t>
+  </si>
+  <si>
+    <t>在增加信息弹窗输入信息没有内容格式校验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.找寻用户管理点击进入其下的出租方页面
+2.点击左上角增加选项，在信息框输入任意信息内容，执行增加操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.弹出增加弹窗，信息录入过程提示输入正确格式的信息，执行增加操作提示输入正确格式的信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.弹出增加弹窗，信息成功录入，增加弹窗退出，页面更新无信息增加</t>
+  </si>
+  <si>
+    <t>在增加信息弹窗输入完整正确增加对象信息，执行增加操作页面无增加信息显示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.找寻用户管理点击进入其下的出租方页面
+2.点击左上角增加选项，在信息框输入增加对象完整正确信息，执行增加操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.弹出增加弹窗，信息成功录入，弹窗退出，页面更新显示增加对象信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.弹出增加弹窗，信息成功录入，增加弹窗退出，页面更新无增加对象信息显示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.找寻用户管理点击进入其下的出租方页面
+2.点击信息栏中需要删除的信息条后的删除选项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.出现删除确认提示弹窗，进行确认后，弹窗退出，页面更新去掉所删除信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.该信息条变蓝显示被勾选，但执行删除操作无响应</t>
+  </si>
+  <si>
+    <t>勾选删除对象执行删除操作无法完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.找寻用户管理点击进入其下的出租方页面
+2.在信息栏中勾选删除对象，在页面上方点击删除按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.所选信息条变蓝显示被勾选，出现删除确认提示弹窗，进行确认后，弹窗退出，页面更新去掉所删除信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.所选信息条变蓝显示被勾选，页面右下角出现删除成功提示弹窗，更新页面仍显示删除对象信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.找寻用户管理点击进入其下的出租方页面
+2.勾选要修改的信息条，点击上方修改选项，只选择性别，删除其他信息，然后进行修改操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.弹出修改弹窗，进行如上操作后提示输入完整修改信息，并且首个信息框中出现输入光标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.弹出修改弹窗，进行如上操作后弹窗退出，页面无信息更新</t>
+  </si>
+  <si>
+    <t>在页面勾选多个对象执行修改，只要完成一个就退出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.找寻用户管理点击进入其下的出租方页面
+2.勾选多条要修改的信息条，点击上方修改选项，输入修改信息，点击修改按钮查看结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.弹出第一个勾选对象信息修改弹窗，进行如上操作后当前修改弹窗退出提示修改成功，继续跳转至下一个勾选对象信息修改弹窗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方页面并显示相关信息
+2.弹出第一个勾选对象信息修改弹窗，进行如上操作后当前弹窗退出，提示修改成功，页面刷新重回操作前状态</t>
+  </si>
+  <si>
+    <t>订单管理-查看订单</t>
+  </si>
+  <si>
+    <t>执行删除信息装无变更</t>
+  </si>
+  <si>
+    <t>查看订单页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t>1.进入查看订单页面
+2.选定状态为已完成信息条执行删除操作，查看结果</t>
+  </si>
+  <si>
+    <t>1.进入页面加载完成
+2.提示删除成功，执行信息条状态变更为已删除</t>
+  </si>
+  <si>
+    <t>1.进入页面加载完成
+2.提示删除成功，执行信息条状态仍为已完成</t>
+  </si>
+  <si>
+    <t>订单管理-评价管理</t>
+  </si>
+  <si>
+    <t>使用用户编号查询类型，输入对应信息进行查询，无法显示所查对象</t>
+  </si>
+  <si>
+    <t>评价管理页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.找寻订单管理点击进入其下的评价管理页面
+2.在页面上方查询类型下拉框中选择用户编号，输入所要查询对象的用户编号进行查询</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入评价管理页面并显示相关信息
+2.查询类型框中查询类型改为用户编号，执行查询过程，显示查询对象信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入评价管理页面并显示相关信息
+2.查询类型框中查询类型改为用户编号，执行查询过程，没有显示查询对象信息</t>
+  </si>
+  <si>
+    <t>日志管理-日
+志查看</t>
+  </si>
+  <si>
+    <t>审核管理-订
+单投诉</t>
+  </si>
+  <si>
+    <t>查看订单投诉页面却
+无信息显示</t>
+  </si>
+  <si>
+    <t>订单投诉页面成功打开并完成加载</t>
+  </si>
+  <si>
+    <t>1.进入订单投诉页面
+2.通过直接观察查看订单投诉信息</t>
+  </si>
+  <si>
+    <t>1.进入页面完成加载
+2.页面依时间由近及远显示订单投诉信息</t>
+  </si>
+  <si>
+    <t>1.进入页面完成加载
+2.页面无内容显示</t>
+  </si>
+  <si>
+    <t>审核管理-订单投诉</t>
+  </si>
+  <si>
+    <t>页面没有对象信息也可执行审批操作</t>
+  </si>
+  <si>
+    <t>订单投诉页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.寻找审核管理，点击进入其下的订单投诉页面
+2.在页面不做任何操作，直接点击“一键审批所选”选项，再根据反馈完成操作确认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入订单投诉页面并显示相关信息
+2.页面无反馈响应</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入订单投诉页面并显示相关信息
+2.弹出审批确认提示窗口，点击确认后，弹窗退出</t>
+  </si>
+  <si>
+    <t>页面没有对象信息也可执行删除操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.寻找审核管理，点击进入其下的订单投诉页面
+2.在页面不做任何操作，直接点击“删除”选项，再根据反馈完成操作确认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入订单投诉页面并显示相关信息
+2.弹出删除确认提示窗口，点击确认后，弹窗退出</t>
+  </si>
+  <si>
+    <t>审核管理-物
+业审核</t>
+  </si>
+  <si>
+    <t>没有勾选对象也可完
+成删除操作</t>
+  </si>
+  <si>
+    <t>物业审核页面成功打开并完成加载</t>
+  </si>
+  <si>
+    <t>1.进入物业审核页面
+2.不勾选对象，直接点击删除按钮执行删除操作</t>
+  </si>
+  <si>
+    <t>1.进入页面完成加载
+2.删除按钮无响应</t>
+  </si>
+  <si>
+    <t>1.进入页面完成加载
+2.提示删除成功，页面无变化</t>
+  </si>
+  <si>
+    <t>审核管理-物业审核</t>
+  </si>
+  <si>
+    <t>勾选对象执行审核操作后对象状态无变更</t>
+  </si>
+  <si>
+    <t>物业审核页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.寻找审核管理，点击进入其下的物业审核页面
+2.在页面勾选对象，点击一键审批所选按钮，再根据反馈完成操作确认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入物业审核页面并显示相关信息
+2.对象被勾选，弹出审批确认提示窗口，点击确认后窗口退出，页面更新审批对象状态为已通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入物业审核页面并显示相关信息
+2.对象被勾选，弹出审批确认提示窗口，点击确认后窗口退出，页面审批对象状态仍为待审核</t>
+  </si>
+  <si>
+    <t>审核管理-车位审核</t>
+  </si>
+  <si>
+    <t>在车位主id信息框中
+输入对应信息进行查询无法匹配到查询对象</t>
+  </si>
+  <si>
+    <t>车位审核页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.寻找审核管理，点击进入其下的车位审核页面
+2.在页面车位主id信息框中输入查询对象对应信息，点击查询按钮查看查询结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入车位审核页面并显示相关信息
+2.查询信息成功录入，执行查询，显示所查审核对象信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入车位审核页面并显示相关信息
+2.查询信息成功录入，执行查询，页面更新无内容显示</t>
+  </si>
+  <si>
+    <t>审核管理-出租方信息审核</t>
+  </si>
+  <si>
+    <t>页面无勾选对象状态栏</t>
+  </si>
+  <si>
+    <t>出租方信息审核页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.寻找审核管理，点击进入其下的出租方信息审核页面
+2.点击勾选要执行操作的对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方信息审核页面并显示相关信息
+2.所选对象信息条变蓝，勾选状态栏出现对号勾选状态反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入出租方信息审核页面并显示相关信息
+2.点选对象信息条变蓝反馈被选择状态</t>
+  </si>
+  <si>
+    <t>车辆相关-汽
+车管理</t>
+  </si>
+  <si>
+    <t>在信息栏后点击删除选项无法删除对象</t>
+  </si>
+  <si>
+    <t>汽车管理页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.寻找车辆相关，点击进入其下的汽车管理页面
+2.在页面选定信息条后点击后面删除按钮，并根据反馈完成操作确认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入汽车管理页面并显示相关信息
+2.页面出现删除确认弹窗，确认后，弹窗退出，页面更新，执行删除对象消失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入汽车管理页面并显示相关信息
+2.页面出现删除确认弹窗，确认后，弹窗退出，页面更新，执行删除对象仍保留</t>
+  </si>
+  <si>
+    <t>执行删除对象状态变更为已删除，却仍然显示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.寻找车辆相关，点击进入其下的汽车管理页面
+2.在页面选定信息条后执行删除操作，并根据反馈完成操作确认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.成功进入汽车管理页面并显示相关信息
+2.页面出现删除确认弹窗，确认后，弹窗退出，页面更新，执行删除对象状态变更为已删除却仍然保留</t>
+  </si>
+  <si>
+    <t>账户管理-账
+户查看</t>
+  </si>
+  <si>
+    <t>点击页面上方账户姓
+名更改排列顺序为无
+规律状态</t>
+  </si>
+  <si>
+    <t>账户查看页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t>1.进入账户查看页面
+2.找寻点击页面上方账户姓名，查看排序变化</t>
+  </si>
+  <si>
+    <t>1.进入页面完成加载
+2.账户姓名栏箭头变
+化，信息出现规律性排序</t>
+  </si>
+  <si>
+    <t>1.进入页面完成加载
+2.账户姓名栏箭头变
+化，信息改变排列顺序却无规律</t>
+  </si>
+  <si>
+    <t>账户管理-平台交易记录查看</t>
+  </si>
+  <si>
+    <t>查看当前页面平台交
+易记录</t>
+  </si>
+  <si>
+    <t>平台交易记录查看页面成功打开并完整加载</t>
+  </si>
+  <si>
+    <t>1.进入平台交易记录页面
+2.通过直接观察和
+搜索查看平台交易
+记录信息</t>
+  </si>
+  <si>
+    <t>1.进入页面完成加载
+2.页面依时间由近及远显示交易记录，并根据搜索时间范围和内容显示交易记录</t>
+  </si>
+  <si>
+    <t>1.进入页面完成加载
+2.页面无信息显示，设定时间范围和输入信息查询也无结果</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +2033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1699,6 +2067,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2366,19 +2737,19 @@
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2386,19 +2757,19 @@
         <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2406,19 +2777,19 @@
         <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2426,19 +2797,19 @@
         <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2446,19 +2817,19 @@
         <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2466,19 +2837,19 @@
         <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2486,19 +2857,19 @@
         <v>52</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2506,19 +2877,19 @@
         <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2526,19 +2897,19 @@
         <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,19 +2917,19 @@
         <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2566,19 +2937,19 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2586,19 +2957,19 @@
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2606,19 +2977,19 @@
         <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2626,19 +2997,19 @@
         <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2646,19 +3017,19 @@
         <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2666,19 +3037,19 @@
         <v>43</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2686,19 +3057,19 @@
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2991,37 +3362,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="108" x14ac:dyDescent="0.15">
@@ -3029,445 +3400,445 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="C3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C4" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C5" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="C6" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="C7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="C8" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C9" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="C10" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C11" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="C12" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="C13" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C14" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C15" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C16" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C17" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C18" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="81" x14ac:dyDescent="0.15">
       <c r="C19" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="54" x14ac:dyDescent="0.15">
       <c r="C20" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="54" x14ac:dyDescent="0.15">
       <c r="C21" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="54" x14ac:dyDescent="0.15">
       <c r="C22" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="C23" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3478,10 +3849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3493,157 +3864,495 @@
     <col min="5" max="5" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>138</v>
+        <v>350</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>140</v>
+        <v>352</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>353</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>142</v>
+        <v>350</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>144</v>
+        <v>356</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>357</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>358</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>360</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>147</v>
+        <v>362</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>364</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
+    <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3656,7 +4365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3686,10 +4395,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -3712,19 +4421,19 @@
     </row>
     <row r="2" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
@@ -3732,222 +4441,222 @@
     </row>
     <row r="3" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
